--- a/revref_movie.xlsx
+++ b/revref_movie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3D7A7B-BDA8-4C8E-918B-993722FB24F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CBB1D3-8C53-458C-8D2C-16C0694C986A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>header1</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Moodleのページに動画を埋め込む形式で提示したい</t>
   </si>
   <si>
-    <t>去年のコースで公開した動画を今年のコースでも使いたい</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -124,190 +121,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;h3&gt;&lt;a name="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>first</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;&lt;/a&gt;はじめに&lt;/h3&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>この方法では、学生は動画を観る際にmoodleから離れてStreamのサイトに移動することになります&lt;br&gt;
-Stre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>mにはTeamsやSharePointなどMicrosoft 365</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アプリ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>でアップロードした動画を視聴することができるため、&lt;br&gt;
-すでに他のMicrosoft 365アプリでアップロードした動画を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>moodleで公開</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">することもできます&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;動画がアップロードされている場所の権限に関係なく、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>URLをクリックした学内のユーザーは誰でも動画を視聴することが可能ですので、ご注意ください</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <rPh sb="130" eb="131">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="207" eb="209">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="210" eb="212">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="254" eb="256">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h3&gt;掲載</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>動画の準備</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>ケイサイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -533,38 +346,6 @@
       <t>ドウガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h3&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>動画へのリンクを取得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;</t>
-    </r>
   </si>
   <si>
     <t>Streamへのアップロードが終わったら、moodleで公開したい動画をクリックします</t>
@@ -583,6 +364,581 @@
     <t>movie1-1.png</t>
   </si>
   <si>
+    <t>movie1-2.png</t>
+  </si>
+  <si>
+    <t>movie1-3.png</t>
+  </si>
+  <si>
+    <r>
+      <t>「適用」をクリックするとURL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が表示されます</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>「コピー」をクリックし、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>URLを取得します</t>
+    </r>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>movie1-4.png</t>
+  </si>
+  <si>
+    <t>moodleにログインし、該当授業のコースを開きます</t>
+  </si>
+  <si>
+    <t>動画を掲載したいセクションをクリックします</t>
+  </si>
+  <si>
+    <t>「編集モード」をクリックし、オンにします</t>
+  </si>
+  <si>
+    <t>「活動またはリソースを追加する」をクリックします</t>
+  </si>
+  <si>
+    <t>「URL」をクリックします</t>
+  </si>
+  <si>
+    <t>「名称」に動画のタイトルを入力します</t>
+  </si>
+  <si>
+    <t>「アピアランス」の「表示」を「新しいウィンドウ」に変更します</t>
+  </si>
+  <si>
+    <t>「保存してコースに戻る」をクリックします</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h3&gt;&lt;a name="link"&gt;&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>moodleから動画にリンクを設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>動画へのリンクを取得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;掲載</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>動画の準備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;ダウンロード不可の条件で動画のURL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を提示する方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <rPh sb="10" eb="12">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>センターからCLEVASの動画URLを入手できましたら、&lt;a href="#link"&gt;moodleから動画にリンクを設定&lt;/a&gt;の手順に従って、コースにURLを提示してください</t>
+    <rPh sb="13" eb="15">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>テイジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CLEVASは広島大学の学習動画共有プラットフォームです
+動画のアップロードはメディアセンターへの依頼が必要です</t>
+    <rPh sb="7" eb="11">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;a name="stream"&gt;&lt;/a&gt;Stream上の動画をダウンロード不可にする方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <rPh sb="31" eb="32">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダウンロード不可の条件で動画のURLを提示する方法は、２通りあります
+動画を掲載する場所を決め、各手順に従って動画の準備とURLの提示を行ってください
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;&lt;a href="#clevas"&gt;CLEVAS上の動画を掲載する&lt;/a&gt;&lt;/b&gt;
+アップロード場所：センターにアップロード依頼
+用途：学内で共有（教職員・学生の区別可、広大ID認証）
+&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a herf="#stream"&gt;Streamの動画をダウンロード不可にする&lt;/a&gt;&lt;/b&gt;
+アップロード方法：OneDrive/Teamsに自身で行う
+用途：授業内で共有、学内で共有（教職員・学生の区別不可、Microsoft アカウント認証必須）&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="6" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="266" eb="268">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="269" eb="270">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;a name="clevas"&gt;&lt;/a&gt;CLEVAS上の動画を掲載する方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <rPh sb="31" eb="32">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Stre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>mにはTeamsやSharePointなどMicrosoft 365</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アプリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>でアップロードした動画を視聴することができるため、&lt;br&gt;
+すでに他のMicrosoft 365アプリでアップロードした動画を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>moodleで公開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">することもできます&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;動画がアップロードされている場所の権限に関係なく、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>URLをクリックした学内のユーザーは誰でも動画を視聴することが可能ですので、ご注意ください</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <rPh sb="75" eb="76">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <t>このリンクはURL</t>
     </r>
@@ -594,7 +950,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>をクリックしたユーザーに</t>
+      <t>をクリックしたユーザーに&lt;u&gt;</t>
     </r>
     <r>
       <rPr>
@@ -604,7 +960,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>編集権限やダウンロード権限を与えるリンクとなっているため、「リンクを知っている</t>
+      <t>編集権限やダウンロード権限を与えるリンク</t>
     </r>
     <r>
       <rPr>
@@ -614,6 +970,26 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t>&lt;/u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>となっているため、「リンクを知っている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>Hiroshima Universityのユーザーが編集できます</t>
     </r>
     <r>
@@ -626,33 +1002,30 @@
       </rPr>
       <t>」をクリックして設定を変更します</t>
     </r>
-    <rPh sb="21" eb="25">
+    <rPh sb="24" eb="28">
       <t>ヘンシュウケンゲン</t>
     </rPh>
-    <rPh sb="32" eb="34">
+    <rPh sb="35" eb="37">
       <t>ケンゲン</t>
     </rPh>
-    <rPh sb="35" eb="36">
+    <rPh sb="38" eb="39">
       <t>アタ</t>
     </rPh>
-    <rPh sb="55" eb="56">
+    <rPh sb="62" eb="63">
       <t>シ</t>
     </rPh>
-    <rPh sb="86" eb="88">
+    <rPh sb="93" eb="95">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="100" eb="102">
+    <rPh sb="107" eb="109">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="103" eb="105">
+    <rPh sb="110" eb="112">
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>movie1-2.png</t>
-  </si>
-  <si>
     <r>
       <t>URL</t>
     </r>
@@ -674,8 +1047,88 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>表示のみできるように設定するには、「編集可能」をクリックし選択しを表示させ、「表示可能」を選択します
-ダウンロード不可にする場合は、「ダウンロードを禁止する」をオンにしてます</t>
+      <t>表示のみできるように設定するには、「編集可能」をクリックし選択しを表示させ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「表示可能」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を選択します
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「ダウンロードを禁止する」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をオンにしてます</t>
     </r>
     <rPh sb="15" eb="17">
       <t>ヘンシュウ</t>
@@ -704,140 +1157,513 @@
     <rPh sb="57" eb="59">
       <t>ヒョウジ</t>
     </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CLEVASは編集権限はメディアセンターで管理しているため、&lt;u&gt;学生は視聴のみしかできず、ダウンロードはできません&lt;/u&gt;</t>
+    <rPh sb="7" eb="11">
+      <t>ヘンシュウケンゲン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>去年のコースで公開した動画を今年のコースでも使いたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;去年のコースで公開した動画を今年のコースでも使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>キョネン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;動画の公開場所の確認&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動画がどこに公開されているかによって、手順方法に違いがあります</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>去年のコースに入って、今年のコースでも使用したい動画のURLまたはを
+クリックして実際にどこに保存されているか確認します</t>
+    <rPh sb="0" eb="2">
+      <t>キョネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="stream"&gt;&lt;/a&gt;Streamの設定確認と変更&lt;/h4&gt;</t>
+    <rPh sb="32" eb="34">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="url"&gt;&lt;/a&gt;mooddleの項目（URL)の再利用操作&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;Stream&lt;/b&gt;：URLが「https://hiroshimauniv.sharepoint.com/」で始まります
+Streamの場合は、&lt;a href="#stream"&gt;Streamの設定確認と変更&lt;/a&gt;を行ってください
+&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;CLEVAS&lt;/b&gt;：URLが「https://vodsrv.huc.hiroshima-u.ac.jp/clevas」で始まります
+&lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から今年のコースへの提示を行ってください&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;その他（Youtube等)&lt;/b&gt;：公開範囲が昨年のコース参加者に限定されていないか確認し、&lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から今年のコースへの提示を行ってください&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="67" eb="68">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="324" eb="325">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="344" eb="345">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="353" eb="354">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="360" eb="364">
+      <t>コウカイハンイ</t>
+    </rPh>
+    <rPh sb="365" eb="367">
+      <t>サクネン</t>
+    </rPh>
+    <rPh sb="371" eb="374">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="375" eb="377">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="384" eb="386">
+      <t>カクニンコトシテイジイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Streamの右上に表示されている「共有」をクリックします</t>
+    <rPh sb="7" eb="9">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アクセス許可の管理」をクリックします</t>
+    <rPh sb="5" eb="7">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>公開範囲を確認するため、URLをクリックしてStreamを開いてください
+moodle内に埋め込んでいる場合は、「Streamで確認」クリックします</t>
+    <rPh sb="43" eb="44">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「リンク」をクリックし、作成されているURLの公開範囲を確認します</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンクが作成されていない場合は、「グループ」をクリックします
+表示されているグループのメンバーしか閲覧することができません</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今年のコースで同じグループを使用しない場合は、新しいグループに動画を移動またはコピーさせるか、リンクを知っているユーザが閲覧可能なURLを発行してください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;新しいグループに動画を移動またはコピーする場合&lt;/h5&gt;
+今年コース用のTemasのチームを作成します
+Streamの動画の画面で移動する場合は上に表示されている「移動する」をクリック
+コピーする場合は上に表示されている「コピー」をクリックします
+作成したチームを選択し、動画を保存します
+移動またはコピー先の動画を開き、ブラウザのアドレスバーからURLをコピーします
+ダウンロード不可としたい場合は、設定の変更を行ってください
+　1.「共有」をクリックします
+　2.「アクセス許可を管理」をクリックします
+　3.「グループ」をクリックします
+　4. 「閲覧者」をクリックします
+　5. 「直接アクセス権：表示可能」をクリックし、「表示可能」と表示されている選択欄をクリックして「ダウンロードできません」に変更します
+　6.「適用」をクリックします
+動画掲載の準備が完了しましたので、&lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;を実施します</t>
+    <rPh sb="4" eb="5">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サクセイ</t>
+    </rPh>
     <rPh sb="63" eb="65">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="65" eb="67">
+    <rPh sb="86" eb="88">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="281" eb="284">
+      <t>エツランシャ</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="305" eb="306">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="307" eb="309">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="309" eb="311">
       <t>カノウ</t>
     </rPh>
-    <rPh sb="69" eb="71">
+    <rPh sb="320" eb="322">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="322" eb="324">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="326" eb="328">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="333" eb="335">
       <t>センタク</t>
     </rPh>
-    <rPh sb="81" eb="83">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
+    <rPh sb="335" eb="336">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="357" eb="359">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="367" eb="369">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="379" eb="381">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="384" eb="386">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="387" eb="389">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="437" eb="439">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>URLの下に「リンクを知っているHiroshima Universityのユーザが…」と表示されている場合は、広島大学のユーザ全員が閲覧可能なURLとなっています
+問題なければそのままそのURLをコピーしてください
+&lt;a href=#url&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から実施してください</t>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="98" eb="100">
-      <t>キンシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>movie1-3.png</t>
-  </si>
-  <si>
-    <r>
-      <t>「適用」をクリックするとURL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>が表示されます</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>テキヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>「コピー」をクリックし、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>URLを取得します</t>
-    </r>
-    <rPh sb="16" eb="18">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>movie1-4.png</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h3&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>moodleから動画にリンクを設定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>moodleにログインし、該当授業のコースを開きます</t>
-  </si>
-  <si>
-    <t>動画を掲載したいセクションをクリックします</t>
-  </si>
-  <si>
-    <t>「編集モード」をクリックし、オンにします</t>
-  </si>
-  <si>
-    <t>「活動またはリソースを追加する」をクリックします</t>
-  </si>
-  <si>
-    <t>「URL」をクリックします</t>
-  </si>
-  <si>
-    <t>「名称」に動画のタイトルを入力します</t>
-  </si>
-  <si>
-    <t>「外部URL」にStreamでコピーした動画の視聴ページのURLをペーストします</t>
-  </si>
-  <si>
-    <t>movie1-5.png</t>
-  </si>
-  <si>
-    <t>「アピアランス」の「表示」を「新しいウィンドウ」に変更します</t>
-  </si>
-  <si>
-    <t>movie1-6.png</t>
-  </si>
-  <si>
-    <t>「保存してコースに戻る」をクリックします</t>
-  </si>
-  <si>
-    <t>movie1-7.png</t>
+    <rPh sb="55" eb="57">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;リンクを知っているユーザが閲覧可能なURLを発行する場合&lt;/h5&gt;
+広島大学のユーザ全員が閲覧可能のURLを発行します
+　1.「共有」をクリックします
+　2.「リンクのコピー」をクリックします
+動画掲載の準備が完了しましたので、mooddleの項目（URL)の再利用操作を実施します</t>
+    <rPh sb="8" eb="9">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「外部URL」にコピーした動画の視聴ページのURLをペーストします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moodleにログインし、今年のコースを開きます</t>
+    <rPh sb="13" eb="15">
+      <t>コトシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -965,7 +1791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,6 +1841,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1389,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1442,193 +2280,264 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="81">
+    <row r="8" spans="1:4" ht="206.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="14" t="s">
-        <v>14</v>
+      <c r="B8" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="19"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="81">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="14"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="40.5">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="13" t="s">
-        <v>17</v>
+      <c r="B11" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="12" t="s">
-        <v>18</v>
+      <c r="B12" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="37.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="12" t="s">
-        <v>19</v>
+      <c r="B13" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="37.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27">
+      <c r="B14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="40.5">
-      <c r="B16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="12" t="s">
-        <v>27</v>
+      <c r="B15" s="14"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" ht="67.5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
       <c r="B19" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="12" t="s">
-        <v>31</v>
+    <row r="20" spans="1:4" ht="81">
+      <c r="A20" s="1"/>
+      <c r="B20" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="12" t="s">
-        <v>32</v>
+    <row r="21" spans="1:4" ht="40.5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="12" t="s">
-        <v>33</v>
-      </c>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
       <c r="B23" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
       <c r="B24" s="12" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
       <c r="B25" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="12" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27">
+      <c r="A26" s="1"/>
+      <c r="B26" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="40.5">
+      <c r="B27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="C29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="12"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1752,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1775,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1804,57 +2713,219 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" ht="37.5">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" ht="168.75">
       <c r="A11" s="1"/>
+      <c r="B11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="37.5">
       <c r="A15" s="1"/>
+      <c r="B15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" ht="75">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" ht="37.5">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
+      <c r="B21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="281.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" ht="93.75">
+      <c r="A25" s="1"/>
+      <c r="B25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1888,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1977,12 +3048,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2235,27 +3315,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2280,12 +3354,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_movie.xlsx
+++ b/revref_movie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CBB1D3-8C53-458C-8D2C-16C0694C986A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F75628E-FAB2-4A67-B0B1-6D03870C2F77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>header1</t>
   </si>
@@ -651,7 +651,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&lt;a name="stream"&gt;&lt;/a&gt;Stream上の動画をダウンロード不可にする方法</t>
+      <t>&lt;a name="clevas"&gt;&lt;/a&gt;CLEVAS上の動画を掲載する方法</t>
     </r>
     <r>
       <rPr>
@@ -689,11 +689,513 @@
     <rPh sb="33" eb="35">
       <t>ドウガ</t>
     </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Stre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>mにはTeamsやSharePointなどMicrosoft 365</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アプリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>でアップロードした動画を視聴することができるため、&lt;br&gt;
+すでに他のMicrosoft 365アプリでアップロードした動画を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>moodleで公開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">することもできます&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;動画がアップロードされている場所の権限に関係なく、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>URLをクリックした学内のユーザーは誰でも動画を視聴することが可能ですので、ご注意ください</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <rPh sb="75" eb="76">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>このリンクはURL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックしたユーザーに&lt;u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>編集権限やダウンロード権限を与えるリンク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>となっているため、「リンクを知っている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Hiroshima Universityのユーザーが編集できます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」をクリックして設定を変更します</t>
+    </r>
+    <rPh sb="24" eb="28">
+      <t>ヘンシュウケンゲン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックしたユーザーに編集権限を与えず、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表示のみできるように設定するには、「編集可能」をクリックし選択しを表示させ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「表示可能」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を選択します
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「ダウンロードを禁止する」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をオンにしてます</t>
+    </r>
+    <rPh sb="15" eb="17">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セッテイ</t>
+    </rPh>
     <rPh sb="42" eb="44">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ホウホウ</t>
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>去年のコースで公開した動画を今年のコースでも使いたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Streamの右上に表示されている「共有」をクリックします</t>
+    <rPh sb="7" eb="9">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アクセス許可の管理」をクリックします</t>
+    <rPh sb="5" eb="7">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>公開範囲を確認するため、URLをクリックしてStreamを開いてください
+moodle内に埋め込んでいる場合は、「Streamで確認」クリックします</t>
+    <rPh sb="43" eb="44">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「リンク」をクリックし、作成されているURLの公開範囲を確認します</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンクが作成されていない場合は、「グループ」をクリックします
+表示されているグループのメンバーしか閲覧することができません</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今年のコースで同じグループを使用しない場合は、新しいグループに動画を移動またはコピーさせるか、リンクを知っているユーザが閲覧可能なURLを発行してください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>URLの下に「リンクを知っているHiroshima Universityのユーザが…」と表示されている場合は、広島大学のユーザ全員が閲覧可能なURLとなっています
+問題なければそのままそのURLをコピーしてください
+&lt;a href=#url&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から実施してください</t>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「外部URL」にコピーした動画の視聴ページのURLをペーストします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moodleにログインし、今年のコースを開きます</t>
+    <rPh sb="13" eb="15">
+      <t>コトシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CLEVASの編集権限はメディアセンターで管理しているため、&lt;u&gt;学生は視聴のみしかできず、ダウンロードはできません&lt;/u&gt;</t>
+    <rPh sb="7" eb="11">
+      <t>ヘンシュウケンゲン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シチョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -705,7 +1207,7 @@
 アップロード場所：センターにアップロード依頼
 用途：学内で共有（教職員・学生の区別可、広大ID認証）
 &lt;/li&gt;
-&lt;li&gt;&lt;b&gt;&lt;a herf="#stream"&gt;Streamの動画をダウンロード不可にする&lt;/a&gt;&lt;/b&gt;
+&lt;li&gt;&lt;b&gt;&lt;a herf="#stream1"&gt;Streamの動画をダウンロード不可にする&lt;/a&gt;&lt;/b&gt;
 アップロード方法：OneDrive/Teamsに自身で行う
 用途：授業内で共有、学内で共有（教職員・学生の区別不可、Microsoft アカウント認証必須）&lt;/li&gt;
 &lt;/ul&gt;</t>
@@ -730,13 +1232,13 @@
     <rPh sb="153" eb="155">
       <t>ヨウト</t>
     </rPh>
-    <rPh sb="248" eb="250">
+    <rPh sb="249" eb="251">
       <t>ホウホウ</t>
     </rPh>
-    <rPh sb="266" eb="268">
+    <rPh sb="267" eb="269">
       <t>ジシン</t>
     </rPh>
-    <rPh sb="269" eb="270">
+    <rPh sb="270" eb="271">
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -773,7 +1275,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&lt;a name="clevas"&gt;&lt;/a&gt;CLEVAS上の動画を掲載する方法</t>
+      <t>&lt;a name="stream1"&gt;&lt;/a&gt;Stream上の動画をダウンロード不可にする方法</t>
     </r>
     <r>
       <rPr>
@@ -805,622 +1307,102 @@
       </rPr>
       <t>&gt;</t>
     </r>
-    <rPh sb="31" eb="32">
+    <rPh sb="32" eb="33">
       <t>ジョウ</t>
     </rPh>
-    <rPh sb="33" eb="35">
+    <rPh sb="34" eb="36">
       <t>ドウガ</t>
     </rPh>
-    <rPh sb="36" eb="38">
-      <t>ケイサイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
+    <rPh sb="43" eb="45">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
       <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>Stre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>mにはTeamsやSharePointなどMicrosoft 365</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アプリ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>でアップロードした動画を視聴することができるため、&lt;br&gt;
-すでに他のMicrosoft 365アプリでアップロードした動画を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>moodleで公開</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">することもできます&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;動画がアップロードされている場所の権限に関係なく、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>URLをクリックした学内のユーザーは誰でも動画を視聴することが可能ですので、ご注意ください</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <rPh sb="75" eb="76">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>このリンクはURL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>をクリックしたユーザーに&lt;u&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>編集権限やダウンロード権限を与えるリンク</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/u&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>となっているため、「リンクを知っている</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Hiroshima Universityのユーザーが編集できます</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」をクリックして設定を変更します</t>
-    </r>
-    <rPh sb="24" eb="28">
-      <t>ヘンシュウケンゲン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>URL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>をクリックしたユーザーに編集権限を与えず、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>表示のみできるように設定するには、「編集可能」をクリックし選択しを表示させ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「表示可能」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">を選択します
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「ダウンロードを禁止する」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>をオンにしてます</t>
-    </r>
-    <rPh sb="15" eb="17">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>キンシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CLEVASは編集権限はメディアセンターで管理しているため、&lt;u&gt;学生は視聴のみしかできず、ダウンロードはできません&lt;/u&gt;</t>
-    <rPh sb="7" eb="11">
-      <t>ヘンシュウケンゲン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>シチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>去年のコースで公開した動画を今年のコースでも使いたい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h3&gt;去年のコースで公開した動画を今年のコースでも使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>する方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>キョネン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コトシ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;動画の公開場所の確認&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>動画がどこに公開されているかによって、手順方法に違いがあります</t>
-    <rPh sb="0" eb="2">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>去年のコースに入って、今年のコースでも使用したい動画のURLまたはを
-クリックして実際にどこに保存されているか確認します</t>
-    <rPh sb="0" eb="2">
-      <t>キョネン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コトシ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="stream"&gt;&lt;/a&gt;Streamの設定確認と変更&lt;/h4&gt;</t>
-    <rPh sb="32" eb="34">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="url"&gt;&lt;/a&gt;mooddleの項目（URL)の再利用操作&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;
+    <t>去年のコースに入って、今年のコースでも使用したい動画のURLまたは実際に視聴ページを開いてどこに保存されているか確認します
+&lt;ul&gt;
 &lt;li&gt;&lt;b&gt;Stream&lt;/b&gt;：URLが「https://hiroshimauniv.sharepoint.com/」で始まります
 Streamの場合は、&lt;a href="#stream"&gt;Streamの設定確認と変更&lt;/a&gt;を行ってください
 &lt;/li&gt;
-&lt;li&gt;&lt;b&gt;CLEVAS&lt;/b&gt;：URLが「https://vodsrv.huc.hiroshima-u.ac.jp/clevas」で始まります
+&lt;li&gt;&lt;b&gt;CLEVAS&lt;/b&gt;：URLが「https://vodsrv.huc.hiroshima-u.ac.jp/clevas」で始まります&lt;br&gt;
 &lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から今年のコースへの提示を行ってください&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;その他（Youtube等)&lt;/b&gt;：公開範囲が昨年のコース参加者に限定されていないか確認し、&lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から今年のコースへの提示を行ってください&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;その他（Youtube等)&lt;/b&gt;：公開範囲が昨年のコース参加者に限定されていないか確認し、&lt;br&gt;
+&lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から今年のコースへの提示を行ってください&lt;/li&gt;
 &lt;/ul&gt;</t>
-    <rPh sb="67" eb="68">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="324" eb="325">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="344" eb="345">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="353" eb="354">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="360" eb="364">
-      <t>コウカイハンイ</t>
-    </rPh>
-    <rPh sb="365" eb="367">
-      <t>サクネン</t>
-    </rPh>
-    <rPh sb="371" eb="374">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="375" eb="377">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="384" eb="386">
-      <t>カクニンコトシテイジイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Streamの右上に表示されている「共有」をクリックします</t>
-    <rPh sb="7" eb="9">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キョウユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「アクセス許可の管理」をクリックします</t>
-    <rPh sb="5" eb="7">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>公開範囲を確認するため、URLをクリックしてStreamを開いてください
-moodle内に埋め込んでいる場合は、「Streamで確認」クリックします</t>
-    <rPh sb="43" eb="44">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
+    <rPh sb="0" eb="2">
+      <t>キョネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シチョウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「リンク」をクリックし、作成されているURLの公開範囲を確認します</t>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
+    <t>&lt;br&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;動画の公開場所の確認&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動画がどこに公開されているかによって、動画を使用する手順方法に違いがあります</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>コウカイ</t>
     </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハンイ</t>
+    <rPh sb="19" eb="21">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テジュン</t>
     </rPh>
     <rPh sb="28" eb="30">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="stream"&gt;&lt;/a&gt;Streamの設定確認と変更&lt;/h3&gt;</t>
+    <rPh sb="32" eb="34">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>リンクが作成されていない場合は、「グループ」をクリックします
-表示されているグループのメンバーしか閲覧することができません</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>今年のコースで同じグループを使用しない場合は、新しいグループに動画を移動またはコピーさせるか、リンクを知っているユーザが閲覧可能なURLを発行してください</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h5&gt;新しいグループに動画を移動またはコピーする場合&lt;/h5&gt;
+    <t>&lt;h4&gt;新しいグループに動画を移動またはコピーする場合&lt;/h4&gt;
 今年コース用のTemasのチームを作成します
 Streamの動画の画面で移動する場合は上に表示されている「移動する」をクリック
 コピーする場合は上に表示されている「コピー」をクリックします
@@ -1587,46 +1569,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>URLの下に「リンクを知っているHiroshima Universityのユーザが…」と表示されている場合は、広島大学のユーザ全員が閲覧可能なURLとなっています
-問題なければそのままそのURLをコピーしてください
-&lt;a href=#url&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から実施してください</t>
-    <rPh sb="4" eb="5">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h5&gt;リンクを知っているユーザが閲覧可能なURLを発行する場合&lt;/h5&gt;
+    <t>&lt;h4&gt;リンクを知っているユーザが閲覧可能なURLを発行する場合&lt;/h4&gt;
 広島大学のユーザ全員が閲覧可能のURLを発行します
 　1.「共有」をクリックします
 　2.「リンクのコピー」をクリックします
@@ -1655,14 +1598,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「外部URL」にコピーした動画の視聴ページのURLをペーストします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>moodleにログインし、今年のコースを開きます</t>
-    <rPh sb="13" eb="15">
-      <t>コトシ</t>
-    </rPh>
+    <t>&lt;h3&gt;&lt;a name="url"&gt;&lt;/a&gt;mooddleの項目（URL)の再利用操作&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2229,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B40"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2288,7 +2224,7 @@
     <row r="8" spans="1:4" ht="206.25">
       <c r="A8" s="1"/>
       <c r="B8" s="18" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2308,7 +2244,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2324,7 +2260,7 @@
     <row r="13" spans="1:4" ht="37.5">
       <c r="A13" s="1"/>
       <c r="B13" s="19" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2346,7 +2282,7 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="14" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2354,7 +2290,7 @@
     <row r="17" spans="1:4" ht="67.5">
       <c r="A17" s="1"/>
       <c r="B17" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -2426,7 +2362,7 @@
     <row r="26" spans="1:4" ht="27">
       <c r="A26" s="1"/>
       <c r="B26" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>16</v>
@@ -2437,7 +2373,7 @@
     </row>
     <row r="27" spans="1:4" ht="40.5">
       <c r="B27" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>16</v>
@@ -2520,7 +2456,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -2661,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2684,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2713,8 +2649,8 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="17" t="s">
-        <v>45</v>
+      <c r="B7" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -2722,75 +2658,79 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="206.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="20" t="s">
-        <v>47</v>
+      <c r="B9" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:4" ht="37.5">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="21" t="s">
-        <v>48</v>
+      <c r="B10" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:4" ht="168.75">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="37.5">
+        <v>43</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="21" t="s">
-        <v>54</v>
+      <c r="B15" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="75">
       <c r="A16" s="1"/>
-      <c r="B16" s="20" t="s">
-        <v>52</v>
+      <c r="B16" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="37.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="20" t="s">
-        <v>53</v>
+      <c r="B17" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -2798,134 +2738,112 @@
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="20" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:4" ht="75">
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
-      <c r="B19" s="21" t="s">
-        <v>59</v>
+      <c r="B19" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" spans="1:4" ht="37.5">
+    <row r="20" spans="1:4" ht="281.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1"/>
-      <c r="B21" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="B21" s="21"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="93.75">
       <c r="A22" s="1"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="21" t="s">
+        <v>60</v>
+      </c>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:4" ht="281.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
-      <c r="B23" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="B23" s="20"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:4" ht="93.75">
+      <c r="B24" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1"/>
-      <c r="B25" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
+      <c r="B25" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1"/>
-      <c r="B27" s="20" t="s">
-        <v>50</v>
+      <c r="B27" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="12" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="12" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1"/>
-      <c r="B32" s="12" t="s">
-        <v>27</v>
+      <c r="B32" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1"/>
       <c r="B33" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1"/>
-      <c r="B34" s="12" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1"/>
-      <c r="B35" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3048,21 +2966,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3315,21 +3224,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3354,9 +3269,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_movie.xlsx
+++ b/revref_movie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F75628E-FAB2-4A67-B0B1-6D03870C2F77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0C1435-F9FA-4BE8-9638-7741AB247ECA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -1200,128 +1200,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ダウンロード不可の条件で動画のURLを提示する方法は、２通りあります
-動画を掲載する場所を決め、各手順に従って動画の準備とURLの提示を行ってください
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;&lt;a href="#clevas"&gt;CLEVAS上の動画を掲載する&lt;/a&gt;&lt;/b&gt;
-アップロード場所：センターにアップロード依頼
-用途：学内で共有（教職員・学生の区別可、広大ID認証）
-&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;&lt;a herf="#stream1"&gt;Streamの動画をダウンロード不可にする&lt;/a&gt;&lt;/b&gt;
-アップロード方法：OneDrive/Teamsに自身で行う
-用途：授業内で共有、学内で共有（教職員・学生の区別不可、Microsoft アカウント認証必須）&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="6" eb="8">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>テイジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ヨウト</t>
-    </rPh>
-    <rPh sb="249" eb="251">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="267" eb="269">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="270" eb="271">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;a name="stream1"&gt;&lt;/a&gt;Stream上の動画をダウンロード不可にする方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <rPh sb="32" eb="33">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>去年のコースに入って、今年のコースでも使用したい動画のURLまたは実際に視聴ページを開いてどこに保存されているか確認します
 &lt;ul&gt;
 &lt;li&gt;&lt;b&gt;Stream&lt;/b&gt;：URLが「https://hiroshimauniv.sharepoint.com/」で始まります
@@ -1599,6 +1477,128 @@
   </si>
   <si>
     <t>&lt;h3&gt;&lt;a name="url"&gt;&lt;/a&gt;mooddleの項目（URL)の再利用操作&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダウンロード不可の条件で動画のURLを提示する方法は、２通りあります
+動画を掲載する場所を決め、各手順に従って動画の準備とURLの提示を行ってください
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;&lt;a href="#clevas"&gt;CLEVAS上の動画を掲載する&lt;/a&gt;&lt;/b&gt;
+アップロード場所：センターにアップロード依頼
+用途：学内で共有（教職員・学生の区別可、広大ID認証）
+&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a href="#stream"&gt;Streamの動画をダウンロード不可にする&lt;/a&gt;&lt;/b&gt;
+アップロード方法：OneDrive/Teamsに自身で行う
+用途：授業内で共有、学内で共有（教職員・学生の区別不可、Microsoft アカウント認証必須）&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="6" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="266" eb="268">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="269" eb="270">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;a name="stream"&gt;&lt;/a&gt;Stream上の動画をダウンロード不可にする方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <rPh sb="31" eb="32">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ホウホウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2165,9 +2165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2224,7 +2222,7 @@
     <row r="8" spans="1:4" ht="206.25">
       <c r="A8" s="1"/>
       <c r="B8" s="18" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2282,7 +2280,7 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2599,7 +2597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -2650,7 +2648,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -2658,7 +2656,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -2666,7 +2664,7 @@
     <row r="9" spans="1:4" ht="206.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -2674,7 +2672,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
@@ -2682,7 +2680,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -2746,7 +2744,7 @@
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
@@ -2754,7 +2752,7 @@
     <row r="20" spans="1:4" ht="281.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -2768,7 +2766,7 @@
     <row r="22" spans="1:4" ht="93.75">
       <c r="A22" s="1"/>
       <c r="B22" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -2782,7 +2780,7 @@
     <row r="24" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2966,12 +2964,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3224,27 +3231,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3269,12 +3270,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_movie.xlsx
+++ b/revref_movie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0C1435-F9FA-4BE8-9638-7741AB247ECA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38925873-619C-42E2-80EC-E6056F93C244}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -2165,7 +2165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2597,9 +2597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2964,21 +2962,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3231,21 +3220,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3270,9 +3265,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_movie.xlsx
+++ b/revref_movie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38925873-619C-42E2-80EC-E6056F93C244}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E88AD4-9E78-4A17-91FC-579F5DA82580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>header1</t>
   </si>
@@ -1113,66 +1113,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>リンクが作成されていない場合は、「グループ」をクリックします
-表示されているグループのメンバーしか閲覧することができません</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>今年のコースで同じグループを使用しない場合は、新しいグループに動画を移動またはコピーさせるか、リンクを知っているユーザが閲覧可能なURLを発行してください</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>URLの下に「リンクを知っているHiroshima Universityのユーザが…」と表示されている場合は、広島大学のユーザ全員が閲覧可能なURLとなっています
-問題なければそのままそのURLをコピーしてください
-&lt;a href=#url&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から実施してください</t>
-    <rPh sb="4" eb="5">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「外部URL」にコピーした動画の視聴ページのURLをペーストします</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1197,47 +1137,6 @@
     <rPh sb="36" eb="38">
       <t>シチョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>去年のコースに入って、今年のコースでも使用したい動画のURLまたは実際に視聴ページを開いてどこに保存されているか確認します
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;Stream&lt;/b&gt;：URLが「https://hiroshimauniv.sharepoint.com/」で始まります
-Streamの場合は、&lt;a href="#stream"&gt;Streamの設定確認と変更&lt;/a&gt;を行ってください
-&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;CLEVAS&lt;/b&gt;：URLが「https://vodsrv.huc.hiroshima-u.ac.jp/clevas」で始まります&lt;br&gt;
-&lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から今年のコースへの提示を行ってください&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;その他（Youtube等)&lt;/b&gt;：公開範囲が昨年のコース参加者に限定されていないか確認し、&lt;br&gt;
-&lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から今年のコースへの提示を行ってください&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="0" eb="2">
-      <t>キョネン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コトシ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>シチョウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;br&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1447,35 +1346,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;リンクを知っているユーザが閲覧可能なURLを発行する場合&lt;/h4&gt;
-広島大学のユーザ全員が閲覧可能のURLを発行します
-　1.「共有」をクリックします
-　2.「リンクのコピー」をクリックします
-動画掲載の準備が完了しましたので、mooddleの項目（URL)の再利用操作を実施します</t>
-    <rPh sb="8" eb="9">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>キョウユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="url"&gt;&lt;/a&gt;mooddleの項目（URL)の再利用操作&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1598,6 +1468,159 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="link"&gt;&lt;/a&gt;リンクを知っているユーザが閲覧可能なURLを発行する場合&lt;/h4&gt;
+広島大学のユーザ全員が閲覧可能のURLを発行します
+　1.「共有」をクリックします
+　2.「リンクのコピー」をクリックします
+　3. ダウンロードを不可にしたい場合は、「設定」をクリックし、その他の設定を「ダウンロードできません」に変更します
+　　「適用」をクリックします
+URLがコピーでき動画掲載の準備が完了しましたので、mooddleの項目（URL)の再利用操作を実施します</t>
+    <rPh sb="27" eb="28">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;URLの下に「リンクを知っているHiroshima Universityのユーザが…」と表示されている場合&lt;/b&gt;は、
+広島大学のユーザ全員が閲覧可能なURLとなっています
+問題なければそのまま「コピー」をクリックして、&lt;a href=#url&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から実施してください</t>
+    <rPh sb="7" eb="8">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;リンクが作成されていない場合&lt;/b&gt;は、「グループ」をクリックします
+表示されているグループ(チーム)のメンバーしか閲覧することができません</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今年のコースで同じグループ(チーム)を使用しない場合は、新しいグループ(チーム)に動画を移動またはコピーさせるか、
+&lt;a href="#link"&gt;リンクを知っているユーザが閲覧できるURLを発行&lt;/a&gt;してください&lt;br&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>去年のコースに入って、今年のコースで使用したい動画のURLまたは実際に視聴ページを開いてどこに保存されているか確認します
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;Stream&lt;/b&gt;：URLが「https://hiroshimauniv.sharepoint.com/」で始まります
+Streamの場合は、&lt;a href="#stream"&gt;Streamの設定確認と変更&lt;/a&gt;を行ってください
+&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;CLEVAS&lt;/b&gt;：URLが「https://vodsrv.huc.hiroshima-u.ac.jp/clevas」で始まります&lt;br&gt;
+動画のURLをコピーして、&lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から今年のコースへの提示を行ってください&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;その他（Youtube等)&lt;/b&gt;：公開範囲が昨年のコース参加者に限定されていないか確認し、&lt;br&gt;
+動画のURLをコピーして、&lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から今年のコースへの提示を行ってください&lt;/li&gt;
+&lt;/ul&gt;&lt;br&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>キョネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シチョウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="274" eb="276">
+      <t>ドウガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2222,7 +2245,7 @@
     <row r="8" spans="1:4" ht="206.25">
       <c r="A8" s="1"/>
       <c r="B8" s="18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2258,7 +2281,7 @@
     <row r="13" spans="1:4" ht="37.5">
       <c r="A13" s="1"/>
       <c r="B13" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2280,7 +2303,7 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2454,7 +2477,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -2646,7 +2669,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -2654,31 +2677,29 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:4" ht="206.25">
+    <row r="9" spans="1:4" ht="243.75">
       <c r="A9" s="1"/>
       <c r="B9" s="21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="B10" s="20"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -2718,7 +2739,7 @@
     <row r="16" spans="1:4" ht="75">
       <c r="A16" s="1"/>
       <c r="B16" s="21" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -2726,31 +2747,29 @@
     <row r="17" spans="1:4" ht="37.5">
       <c r="A17" s="1"/>
       <c r="B17" s="21" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="56.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="20" t="s">
-        <v>47</v>
+      <c r="B18" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
-      <c r="B19" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="B19" s="20"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" ht="281.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -2761,10 +2780,10 @@
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" ht="93.75">
+    <row r="22" spans="1:4" ht="150">
       <c r="A22" s="1"/>
       <c r="B22" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -2778,13 +2797,13 @@
     <row r="24" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1"/>
       <c r="B25" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2820,7 +2839,7 @@
     <row r="31" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2962,12 +2981,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3220,27 +3248,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3265,12 +3287,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_movie.xlsx
+++ b/revref_movie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E88AD4-9E78-4A17-91FC-579F5DA82580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952C4830-EE34-49E0-B44B-FE90E7A9921A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t>header1</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>ダウンロード不可の条件で動画のURLを提示したい</t>
-  </si>
-  <si>
-    <t>Moodleのページに動画を埋め込む形式で提示したい</t>
   </si>
   <si>
     <r>
@@ -1175,6 +1172,285 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="url"&gt;&lt;/a&gt;mooddleの項目（URL)の再利用操作&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダウンロード不可の条件で動画のURLを提示する方法は、２通りあります
+動画を掲載する場所を決め、各手順に従って動画の準備とURLの提示を行ってください
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;&lt;a href="#clevas"&gt;CLEVAS上の動画を掲載する&lt;/a&gt;&lt;/b&gt;
+アップロード場所：センターにアップロード依頼
+用途：学内で共有（教職員・学生の区別可、広大ID認証）
+&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;&lt;a href="#stream"&gt;Streamの動画をダウンロード不可にする&lt;/a&gt;&lt;/b&gt;
+アップロード方法：OneDrive/Teamsに自身で行う
+用途：授業内で共有、学内で共有（教職員・学生の区別不可、Microsoft アカウント認証必須）&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="6" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="266" eb="268">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="269" eb="270">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;a name="stream"&gt;&lt;/a&gt;Stream上の動画をダウンロード不可にする方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <rPh sb="31" eb="32">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="link"&gt;&lt;/a&gt;リンクを知っているユーザが閲覧可能なURLを発行する場合&lt;/h4&gt;
+広島大学のユーザ全員が閲覧可能のURLを発行します
+　1.「共有」をクリックします
+　2.「リンクのコピー」をクリックします
+　3. ダウンロードを不可にしたい場合は、「設定」をクリックし、その他の設定を「ダウンロードできません」に変更します
+　　「適用」をクリックします
+URLがコピーでき動画掲載の準備が完了しましたので、mooddleの項目（URL)の再利用操作を実施します</t>
+    <rPh sb="27" eb="28">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;URLの下に「リンクを知っているHiroshima Universityのユーザが…」と表示されている場合&lt;/b&gt;は、
+広島大学のユーザ全員が閲覧可能なURLとなっています
+問題なければそのまま「コピー」をクリックして、&lt;a href=#url&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から実施してください</t>
+    <rPh sb="7" eb="8">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;リンクが作成されていない場合&lt;/b&gt;は、「グループ」をクリックします
+表示されているグループ(チーム)のメンバーしか閲覧することができません</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今年のコースで同じグループ(チーム)を使用しない場合は、新しいグループ(チーム)に動画を移動またはコピーさせるか、
+&lt;a href="#link"&gt;リンクを知っているユーザが閲覧できるURLを発行&lt;/a&gt;してください&lt;br&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>去年のコースに入って、今年のコースで使用したい動画のURLまたは実際に視聴ページを開いてどこに保存されているか確認します
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;Stream&lt;/b&gt;：URLが「https://hiroshimauniv.sharepoint.com/」で始まります
+Streamの場合は、&lt;a href="#stream"&gt;Streamの設定確認と変更&lt;/a&gt;を行ってください
+&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;CLEVAS&lt;/b&gt;：URLが「https://vodsrv.huc.hiroshima-u.ac.jp/clevas」で始まります&lt;br&gt;
+動画のURLをコピーして、&lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から今年のコースへの提示を行ってください&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;その他（Youtube等)&lt;/b&gt;：公開範囲が昨年のコース参加者に限定されていないか確認し、&lt;br&gt;
+動画のURLをコピーして、&lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から今年のコースへの提示を行ってください&lt;/li&gt;
+&lt;/ul&gt;&lt;br&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>キョネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シチョウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="274" eb="276">
+      <t>ドウガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1192,7 +1468,7 @@
 　4. 「閲覧者」をクリックします
 　5. 「直接アクセス権：表示可能」をクリックし、「表示可能」と表示されている選択欄をクリックして「ダウンロードできません」に変更します
 　6.「適用」をクリックします
-動画掲載の準備が完了しましたので、&lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;を実施します</t>
+動画掲載の準備が完了しましたので、&lt;a href="#url"&gt;moodleの項目（URL)の再利用操作&lt;/a&gt;を実施します</t>
     <rPh sb="4" eb="5">
       <t>アタラ</t>
     </rPh>
@@ -1340,62 +1616,18 @@
     <rPh sb="387" eb="389">
       <t>カンリョウ</t>
     </rPh>
-    <rPh sb="437" eb="439">
+    <rPh sb="436" eb="438">
       <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="url"&gt;&lt;/a&gt;mooddleの項目（URL)の再利用操作&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ダウンロード不可の条件で動画のURLを提示する方法は、２通りあります
-動画を掲載する場所を決め、各手順に従って動画の準備とURLの提示を行ってください
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;&lt;a href="#clevas"&gt;CLEVAS上の動画を掲載する&lt;/a&gt;&lt;/b&gt;
-アップロード場所：センターにアップロード依頼
-用途：学内で共有（教職員・学生の区別可、広大ID認証）
-&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;&lt;a href="#stream"&gt;Streamの動画をダウンロード不可にする&lt;/a&gt;&lt;/b&gt;
-アップロード方法：OneDrive/Teamsに自身で行う
-用途：授業内で共有、学内で共有（教職員・学生の区別不可、Microsoft アカウント認証必須）&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="6" eb="8">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>テイジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ヨウト</t>
-    </rPh>
-    <rPh sb="248" eb="250">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="266" eb="268">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="269" eb="270">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
+    <t>Moodleのページに動画を埋め込む形式で提示したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;Moodleのページに動画を埋め込む形式で提示</t>
     </r>
     <r>
       <rPr>
@@ -1405,7 +1637,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>3</t>
+      <t>する方法</t>
     </r>
     <r>
       <rPr>
@@ -1415,7 +1647,60 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&gt;</t>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <rPh sb="15" eb="17">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Moodleのページに埋め込む形式で提示できるのは、チームのファイルにアップロードされている動画です</t>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チームを作成していない場合、連携用チームを&lt;a href="https://support.vle.hiroshima-u.ac.jp/stream:lecture-group-private-moodle"&gt;こちらのページ&lt;/a&gt;を参照して、作成してください</t>
+    <rPh sb="117" eb="119">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h4&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1425,7 +1710,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&lt;a name="stream"&gt;&lt;/a&gt;Stream上の動画をダウンロード不可にする方法</t>
+      <t>&lt;a name="team"&gt;&lt;/a&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1435,7 +1720,16 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&lt;/h</t>
+      <t>チーム作成&lt;/h4&gt;</t>
+    </r>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h4&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1445,7 +1739,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>3</t>
+      <t>&lt;a name="moodle"&gt;&lt;/a&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1455,172 +1749,209 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&gt;</t>
-    </r>
-    <rPh sb="31" eb="32">
+      <t>&gt;moodleに貼り付け&lt;/h4&gt;</t>
+    </r>
+    <rPh sb="33" eb="34">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成したチームのファイル上に動画をアップロードします</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
       <t>ジョウ</t>
     </rPh>
-    <rPh sb="33" eb="35">
+    <rPh sb="14" eb="16">
       <t>ドウガ</t>
     </rPh>
-    <rPh sb="42" eb="44">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="link"&gt;&lt;/a&gt;リンクを知っているユーザが閲覧可能なURLを発行する場合&lt;/h4&gt;
-広島大学のユーザ全員が閲覧可能のURLを発行します
-　1.「共有」をクリックします
-　2.「リンクのコピー」をクリックします
-　3. ダウンロードを不可にしたい場合は、「設定」をクリックし、その他の設定を「ダウンロードできません」に変更します
-　　「適用」をクリックします
-URLがコピーでき動画掲載の準備が完了しましたので、mooddleの項目（URL)の再利用操作を実施します</t>
-    <rPh sb="27" eb="28">
-      <t>シ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手順としては、&lt;a href="#team"&gt;チーム作成&lt;/a&gt;→&lt;a href="#upload"&gt;動画をアップロードとHTMLコードの取得&lt;/a&gt;→&lt;a href="moodle"&gt;moodleに貼り付け&lt;/a&gt;の順でおこないます</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;a name="upload"&gt;&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>動画をアップロードとHTMLコードの取得&lt;/h4&gt;</t>
+    </r>
+    <rPh sb="25" eb="27">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Teamsのファイルで動画を開きます</t>
+    <rPh sb="11" eb="13">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上に表示されている「共有」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moodleにログインし、対象のコースを開きます</t>
+    <rPh sb="13" eb="15">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ページ」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「埋め込みコード」をクリックし、「埋め込みコードのコピー」クリックするとHTMLコードを取得できます</t>
+    <rPh sb="1" eb="2">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ページコンテンツ」の入力欄の上に表示されているボタンの中で一番左にある矢印のボタン（さらにボタンを表示する）をクリックします</t>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒダリ</t>
     </rPh>
     <rPh sb="36" eb="38">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;URLの下に「リンクを知っているHiroshima Universityのユーザが…」と表示されている場合&lt;/b&gt;は、
-広島大学のユーザ全員が閲覧可能なURLとなっています
-問題なければそのまま「コピー」をクリックして、&lt;a href=#url&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から実施してください</t>
-    <rPh sb="7" eb="8">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="54" eb="56">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ダイガク</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;リンクが作成されていない場合&lt;/b&gt;は、「グループ」をクリックします
-表示されているグループ(チーム)のメンバーしか閲覧することができません</t>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>表示されたボタンの中から「＜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>＞」ボタン（HTML）をクリックします</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力欄に表示されている文字列を削除し、コピーしたHTMLコードをペーストします</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>モジレツ</t>
     </rPh>
     <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>今年のコースで同じグループ(チーム)を使用しない場合は、新しいグループ(チーム)に動画を移動またはコピーさせるか、
-&lt;a href="#link"&gt;リンクを知っているユーザが閲覧できるURLを発行&lt;/a&gt;してください&lt;br&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>去年のコースに入って、今年のコースで使用したい動画のURLまたは実際に視聴ページを開いてどこに保存されているか確認します
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;Stream&lt;/b&gt;：URLが「https://hiroshimauniv.sharepoint.com/」で始まります
-Streamの場合は、&lt;a href="#stream"&gt;Streamの設定確認と変更&lt;/a&gt;を行ってください
-&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;CLEVAS&lt;/b&gt;：URLが「https://vodsrv.huc.hiroshima-u.ac.jp/clevas」で始まります&lt;br&gt;
-動画のURLをコピーして、&lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から今年のコースへの提示を行ってください&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;その他（Youtube等)&lt;/b&gt;：公開範囲が昨年のコース参加者に限定されていないか確認し、&lt;br&gt;
-動画のURLをコピーして、&lt;a href="#url"&gt;mooddleの項目（URL)の再利用操作&lt;/a&gt;から今年のコースへの提示を行ってください&lt;/li&gt;
-&lt;/ul&gt;&lt;br&gt;</t>
-    <rPh sb="0" eb="2">
-      <t>キョネン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コトシ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シチョウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="274" eb="276">
-      <t>ドウガ</t>
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2188,327 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="206.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="37.5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" ht="37.5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="37.5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" ht="67.5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" ht="81">
-      <c r="A20" s="1"/>
-      <c r="B20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" ht="40.5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="27">
-      <c r="A26" s="1"/>
-      <c r="B26" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="40.5">
-      <c r="B27" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="12"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABB89B-389D-4E53-86E8-1C489CE9D7CA}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2528,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2557,57 +2569,265 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="206.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" ht="37.5">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" ht="37.5">
       <c r="A14" s="1"/>
+      <c r="B14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" ht="67.5">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="14"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="81">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" ht="40.5">
       <c r="A21" s="1"/>
+      <c r="B21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27">
+      <c r="A26" s="1"/>
+      <c r="B26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="40.5">
+      <c r="B27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="12"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2616,9 +2836,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
-  <dimension ref="A1:D35"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABB89B-389D-4E53-86E8-1C489CE9D7CA}">
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -2639,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2668,8 +2888,204 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
+      <c r="B7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="27">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
       <c r="B7" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -2677,7 +3093,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
@@ -2685,7 +3101,7 @@
     <row r="9" spans="1:4" ht="243.75">
       <c r="A9" s="1"/>
       <c r="B9" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -2699,7 +3115,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -2707,7 +3123,7 @@
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
@@ -2715,7 +3131,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
@@ -2723,7 +3139,7 @@
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -2731,7 +3147,7 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
@@ -2739,7 +3155,7 @@
     <row r="16" spans="1:4" ht="75">
       <c r="A16" s="1"/>
       <c r="B16" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
@@ -2747,7 +3163,7 @@
     <row r="17" spans="1:4" ht="37.5">
       <c r="A17" s="1"/>
       <c r="B17" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
@@ -2755,7 +3171,7 @@
     <row r="18" spans="1:4" ht="56.25">
       <c r="A18" s="1"/>
       <c r="B18" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
@@ -2769,7 +3185,7 @@
     <row r="20" spans="1:4" ht="281.25">
       <c r="A20" s="1"/>
       <c r="B20" s="21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
@@ -2783,7 +3199,7 @@
     <row r="22" spans="1:4" ht="150">
       <c r="A22" s="1"/>
       <c r="B22" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
@@ -2797,61 +3213,61 @@
     <row r="24" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1"/>
       <c r="B25" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1"/>
       <c r="B33" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2892,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2999,6 +3415,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -3247,15 +3672,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
@@ -3268,6 +3684,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3284,12 +3708,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/revref_movie.xlsx
+++ b/revref_movie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952C4830-EE34-49E0-B44B-FE90E7A9921A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BFC678-6C7F-4CF0-997F-9F26FA7F8C20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -1699,67 +1699,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>&lt;h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;a name="team"&gt;&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>チーム作成&lt;/h4&gt;</t>
-    </r>
-    <rPh sb="26" eb="28">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;a name="moodle"&gt;&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;moodleに貼り付け&lt;/h4&gt;</t>
-    </r>
-    <rPh sb="33" eb="34">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>作成したチームのファイル上に動画をアップロードします</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
@@ -1773,60 +1712,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>手順としては、&lt;a href="#team"&gt;チーム作成&lt;/a&gt;→&lt;a href="#upload"&gt;動画をアップロードとHTMLコードの取得&lt;/a&gt;→&lt;a href="moodle"&gt;moodleに貼り付け&lt;/a&gt;の順でおこないます</t>
-    <rPh sb="0" eb="2">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>ジュン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;a name="upload"&gt;&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>動画をアップロードとHTMLコードの取得&lt;/h4&gt;</t>
-    </r>
-    <rPh sb="25" eb="27">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Teamsのファイルで動画を開きます</t>
     <rPh sb="11" eb="13">
       <t>ドウガ</t>
@@ -1952,6 +1837,58 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手順としては、チーム作成→動画をアップロード→HTMLコードの取得→moodleに貼り付けの順で行います</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;チーム作成&lt;/h4&gt;</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;動画をアップロードとHTMLコードの取得&lt;/h4&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;moodleに貼り付け&lt;/h4&gt;</t>
+    <rPh sb="11" eb="12">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2902,10 +2839,10 @@
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="27">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
@@ -2919,7 +2856,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27">
@@ -2935,31 +2872,31 @@
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="17" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2968,13 +2905,13 @@
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2995,7 +2932,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3005,17 +2942,17 @@
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3397,33 +3334,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -3672,26 +3582,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3708,4 +3626,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>